--- a/RCS County Place names.xlsx
+++ b/RCS County Place names.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkingRCS\rcs_data-masterV19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet2" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1090,21 +1098,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1113,41 +1124,305 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C356"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.57"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,3912 +1433,3915 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="C2">
-        <v>760.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="C3">
-        <v>925.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1090.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="C5">
-        <v>1530.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>2355.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>3235.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>3455.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>3455.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="C10">
-        <v>3620.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C11">
-        <v>3950.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>4000.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>4000.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>4000.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>4110.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C16">
-        <v>4935.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="C17">
-        <v>4935.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="C18">
-        <v>5265.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>5265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>6090.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>6090.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C21">
-        <v>6255.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>6255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="C22">
-        <v>6255.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>6255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="C23">
-        <v>6530.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>6530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>7025.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>7025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>7190.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="C26">
-        <v>7410.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="C27">
-        <v>7571.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>7571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="C28">
-        <v>7795.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>7795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>7850.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C30">
-        <v>8070.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>8070</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>8070.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>8070</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="C32">
-        <v>8345.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>8345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="C33">
-        <v>8400.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>8675.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>8675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C35">
-        <v>8675.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>8675</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="C36">
-        <v>9115.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>9115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>9280.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>9280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="C38">
-        <v>9555.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>9555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>10105.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>10105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="C40">
-        <v>10600.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="C41">
-        <v>11260.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>11260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>11645.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>11645</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="C43">
-        <v>11810.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>11810</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="C44">
-        <v>12045.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>12045</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C45">
-        <v>12387.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>12387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C46">
-        <v>12415.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>12415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C47">
-        <v>12635.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>12635</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>12815.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>12815</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="C49">
-        <v>12855.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>12855</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="C50">
-        <v>12855.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>12855</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C51">
-        <v>12910.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>12910</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="C52">
-        <v>12910.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>12910</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="C53">
-        <v>13460.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>13460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>13845.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>13845</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>14175.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>14175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="C56">
-        <v>14765.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>14765</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="C57">
-        <v>15330.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>15330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="C58">
-        <v>15550.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>15550</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="C59">
-        <v>15605.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>15605</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="C60">
-        <v>16000.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>16385.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>16385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>16495.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>16495</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="C63">
-        <v>17375.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>17375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="C64">
-        <v>17760.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>17760</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C65">
-        <v>17925.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>17925</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C66">
-        <v>18310.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>18310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="C67">
-        <v>18420.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>18420</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="C68">
-        <v>18530.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>18530</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C69">
-        <v>18640.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>18640</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C70">
-        <v>18750.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C71">
-        <v>19080.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>19080</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="C72">
-        <v>19355.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>19355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C73">
-        <v>19630.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>19630</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="C74">
-        <v>19795.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>19795</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C75">
-        <v>19850.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>19850</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C76">
-        <v>20000.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="C77">
-        <v>20440.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>20440</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="C78">
-        <v>20495.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>20495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="C79">
-        <v>20770.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>20770</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C80">
-        <v>21265.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>21265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="C81">
-        <v>22035.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>22035</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="C82">
-        <v>22145.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>22145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C83">
-        <v>22200.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C84">
-        <v>22860.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>22860</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="C85">
-        <v>23025.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>23025</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C86">
-        <v>23135.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>23135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C87">
-        <v>23740.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>23740</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C88">
-        <v>24620.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>24620</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C89">
-        <v>24785.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>24785</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C90">
-        <v>24950.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>24950</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C91">
-        <v>24950.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>24950</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="C92">
-        <v>25115.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>25115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C93">
-        <v>25280.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>25280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="C94">
-        <v>25610.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>25610</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
       <c r="B95">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>26270.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>26270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C96">
-        <v>26600.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="C97">
-        <v>26765.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>26765</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C98">
-        <v>26875.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>26875</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
       <c r="B99">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="C99">
-        <v>27040.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>27040</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>101</v>
       </c>
       <c r="B100">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="C100">
-        <v>27425.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>27425</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>102</v>
       </c>
       <c r="B101">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C101">
-        <v>27700.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>27700</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>103</v>
       </c>
       <c r="B102">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="C102">
-        <v>27810.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>27810</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="C103">
-        <v>27865.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>27865</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>105</v>
       </c>
       <c r="B104">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="C104">
-        <v>27975.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>27975</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>106</v>
       </c>
       <c r="B105">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C105">
-        <v>28105.0</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>28105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>107</v>
       </c>
       <c r="B106">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="C106">
-        <v>28305.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>28305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>108</v>
       </c>
       <c r="B107">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C107">
-        <v>28360.0</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>28360</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>109</v>
       </c>
       <c r="B108">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="C108">
-        <v>28690.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>28690</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>110</v>
       </c>
       <c r="B109">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="C109">
-        <v>28745.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>28745</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>111</v>
       </c>
       <c r="B110">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C110">
-        <v>29185.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>29185</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>112</v>
       </c>
       <c r="B111">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="C111">
-        <v>29680.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>29680</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>113</v>
       </c>
       <c r="B112">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C112">
-        <v>29735.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>29735</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>114</v>
       </c>
       <c r="B113">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C113">
-        <v>29955.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>29955</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>115</v>
       </c>
       <c r="B114">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C114">
-        <v>30340.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>30340</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>116</v>
       </c>
       <c r="B115">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="C115">
-        <v>30780.0</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>30780</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>117</v>
       </c>
       <c r="B116">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C116">
-        <v>30835.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>30835</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>118</v>
       </c>
       <c r="B117">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="C117">
-        <v>31550.0</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>31550</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>119</v>
       </c>
       <c r="B118">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="C118">
-        <v>31605.0</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>31605</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>120</v>
       </c>
       <c r="B119">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="C119">
-        <v>31660.0</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>31660</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>121</v>
       </c>
       <c r="B120">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="C120">
-        <v>31715.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>31715</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>122</v>
       </c>
       <c r="B121">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C121">
-        <v>32155.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>32155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>123</v>
       </c>
       <c r="B122">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="C122">
-        <v>32650.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>32650</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>124</v>
       </c>
       <c r="B123">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="C123">
-        <v>32650.0</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>32650</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>125</v>
       </c>
       <c r="B124">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C124">
-        <v>33035.0</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>33035</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>126</v>
       </c>
       <c r="B125">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C125">
-        <v>33310.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>33310</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>127</v>
       </c>
       <c r="B126">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C126">
-        <v>33640.0</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>33640</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>128</v>
       </c>
       <c r="B127">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C127">
-        <v>33695.0</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>33695</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>129</v>
       </c>
       <c r="B128">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="C128">
-        <v>34520.0</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>34520</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>130</v>
       </c>
       <c r="B129">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="C129">
-        <v>34740.0</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>34740</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>131</v>
       </c>
       <c r="B130">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="C130">
-        <v>34960.0</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>34960</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>132</v>
       </c>
       <c r="B131">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="C131">
-        <v>35070.0</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>35070</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>133</v>
       </c>
       <c r="B132">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="C132">
-        <v>36610.0</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>36610</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>134</v>
       </c>
       <c r="B133">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="C133">
-        <v>37215.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>37215</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>135</v>
       </c>
       <c r="B134">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="C134">
-        <v>37270.0</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>37270</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>136</v>
       </c>
       <c r="B135">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C135">
-        <v>37380.0</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>37380</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>137</v>
       </c>
       <c r="B136">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C136">
-        <v>37545.0</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>37545</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>138</v>
       </c>
       <c r="B137">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="C137">
-        <v>37600.0</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>37600</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>139</v>
       </c>
       <c r="B138">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C138">
-        <v>37820.0</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>37820</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>140</v>
       </c>
       <c r="B139">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="C139">
-        <v>37875.0</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>37875</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>141</v>
       </c>
       <c r="B140">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C140">
-        <v>38370.0</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>38370</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>142</v>
       </c>
       <c r="B141">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="C141">
-        <v>38535.0</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>38535</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>143</v>
       </c>
       <c r="B142">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C142">
-        <v>38590.0</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>38590</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>144</v>
       </c>
       <c r="B143">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C143">
-        <v>39195.0</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>39195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>145</v>
       </c>
       <c r="B144">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C144">
-        <v>39855.0</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>39855</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>146</v>
       </c>
       <c r="B145">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="C145">
-        <v>39855.0</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>39855</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>147</v>
       </c>
       <c r="B146">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="C146">
-        <v>39965.0</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>39965</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>148</v>
       </c>
       <c r="B147">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C147">
-        <v>40185.0</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>40185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>149</v>
       </c>
       <c r="B148">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C148">
-        <v>40515.0</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>40515</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>150</v>
       </c>
       <c r="B149">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="C149">
-        <v>40570.0</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>40570</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>151</v>
       </c>
       <c r="B150">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C150">
-        <v>40790.0</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>40790</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>152</v>
       </c>
       <c r="B151">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C151">
-        <v>41010.0</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>41010</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>153</v>
       </c>
       <c r="B152">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="C152">
-        <v>41560.0</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>41560</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>154</v>
       </c>
       <c r="B153">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C153">
-        <v>41835.0</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>155</v>
       </c>
       <c r="B154">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C154">
-        <v>42055.0</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>42055</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>156</v>
       </c>
       <c r="B155">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="C155">
-        <v>42110.0</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>42110</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>157</v>
       </c>
       <c r="B156">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="C156">
-        <v>42330.0</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>42330</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>158</v>
       </c>
       <c r="B157">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C157">
-        <v>42495.0</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>42495</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>159</v>
       </c>
       <c r="B158">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C158">
-        <v>43000.0</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>160</v>
       </c>
       <c r="B159">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="C159">
-        <v>43110.0</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>43110</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>161</v>
       </c>
       <c r="B160">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C160">
-        <v>43550.0</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>162</v>
       </c>
       <c r="B161">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C161">
-        <v>43605.0</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>163</v>
       </c>
       <c r="B162">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C162">
-        <v>43660.0</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>164</v>
       </c>
       <c r="B163">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="C163">
-        <v>44100.0</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>165</v>
       </c>
       <c r="B164">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="C164">
-        <v>44320.0</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>166</v>
       </c>
       <c r="B165">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="C165">
-        <v>44980.0</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
       <c r="B166">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C166">
-        <v>45255.0</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>168</v>
       </c>
       <c r="B167">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C167">
-        <v>45255.0</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>169</v>
       </c>
       <c r="B168">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C168">
-        <v>45255.0</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>170</v>
       </c>
       <c r="B169">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C169">
-        <v>45530.0</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>171</v>
       </c>
       <c r="B170">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C170">
-        <v>45530.0</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>172</v>
       </c>
       <c r="B171">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="C171">
-        <v>45695.0</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>173</v>
       </c>
       <c r="B172">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C172">
-        <v>45955.0</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>174</v>
       </c>
       <c r="B173">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C173">
-        <v>45970.0</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>175</v>
       </c>
       <c r="B174">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C174">
-        <v>45970.0</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>176</v>
       </c>
       <c r="B175">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C175">
-        <v>46355.0</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>46355</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>177</v>
       </c>
       <c r="B176">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="C176">
-        <v>46465.0</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>46465</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>178</v>
       </c>
       <c r="B177">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C177">
-        <v>47070.0</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>47070</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>179</v>
       </c>
       <c r="B178">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C178">
-        <v>48060.0</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>48060</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>180</v>
       </c>
       <c r="B179">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="C179">
-        <v>48115.0</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>48115</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>181</v>
       </c>
       <c r="B180">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="C180">
-        <v>48445.0</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>48445</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>182</v>
       </c>
       <c r="B181">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="C181">
-        <v>48500.0</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>183</v>
       </c>
       <c r="B182">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C182">
-        <v>48555.0</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>48555</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>184</v>
       </c>
       <c r="B183">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C183">
-        <v>49600.0</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>185</v>
       </c>
       <c r="B184">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="C184">
-        <v>49875.0</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>49875</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>186</v>
       </c>
       <c r="B185">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C185">
-        <v>50040.0</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>50040</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>187</v>
       </c>
       <c r="B186">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C186">
-        <v>50480.0</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>50480</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>188</v>
       </c>
       <c r="B187">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C187">
-        <v>50920.0</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>50920</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>189</v>
       </c>
       <c r="B188">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="C188">
-        <v>51250.0</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>51250</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>190</v>
       </c>
       <c r="B189">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="C189">
-        <v>51635.0</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>51635</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>191</v>
       </c>
       <c r="B190">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="C190">
-        <v>51690.0</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>51690</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>192</v>
       </c>
       <c r="B191">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="C191">
-        <v>51745.0</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>51745</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>193</v>
       </c>
       <c r="B192">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="C192">
-        <v>51800.0</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>51800</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>194</v>
       </c>
       <c r="B193">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C193">
-        <v>52075.0</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>52075</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>195</v>
       </c>
       <c r="B194">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C194">
-        <v>52350.0</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>52350</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>196</v>
       </c>
       <c r="B195">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="C195">
-        <v>52550.0</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>52550</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>197</v>
       </c>
       <c r="B196">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C196">
-        <v>52570.0</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>52570</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>198</v>
       </c>
       <c r="B197">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="C197">
-        <v>53120.0</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>53120</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>199</v>
       </c>
       <c r="B198">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C198">
-        <v>53175.0</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>53175</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>200</v>
       </c>
       <c r="B199">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="C199">
-        <v>53395.0</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>53395</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>201</v>
       </c>
       <c r="B200">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C200">
-        <v>54330.0</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>54330</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>202</v>
       </c>
       <c r="B201">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C201">
-        <v>54330.0</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>54330</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>203</v>
       </c>
       <c r="B202">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="C202">
-        <v>54880.0</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>54880</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>204</v>
       </c>
       <c r="B203">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="C203">
-        <v>54935.0</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>54935</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>205</v>
       </c>
       <c r="B204">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C204">
-        <v>55045.0</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>55045</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>206</v>
       </c>
       <c r="B205">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="C205">
-        <v>55155.0</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>55155</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>207</v>
       </c>
       <c r="B206">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="C206">
-        <v>55540.0</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>55540</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>208</v>
       </c>
       <c r="B207">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C207">
-        <v>55705.0</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>55705</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>
       <c r="B208">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="C208">
-        <v>55870.0</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>55870</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>210</v>
       </c>
       <c r="B209">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C209">
-        <v>55980.0</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>55980</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>211</v>
       </c>
       <c r="B210">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C210">
-        <v>56145.0</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>56145</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>212</v>
       </c>
       <c r="B211">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="C211">
-        <v>56365.0</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>56365</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>213</v>
       </c>
       <c r="B212">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="C212">
-        <v>56420.0</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>56420</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>214</v>
       </c>
       <c r="B213">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="C213">
-        <v>56475.0</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>56475</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>215</v>
       </c>
       <c r="B214">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C214">
-        <v>56860.0</v>
-      </c>
-    </row>
-    <row r="215">
+        <v>56860</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>216</v>
       </c>
       <c r="B215">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="C215">
-        <v>56970.0</v>
-      </c>
-    </row>
-    <row r="216">
+        <v>56970</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>217</v>
       </c>
       <c r="B216">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="C216">
-        <v>57025.0</v>
-      </c>
-    </row>
-    <row r="217">
+        <v>57025</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>218</v>
       </c>
       <c r="B217">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="C217">
-        <v>57245.0</v>
-      </c>
-    </row>
-    <row r="218">
+        <v>57245</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>219</v>
       </c>
       <c r="B218">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C218">
-        <v>57300.0</v>
-      </c>
-    </row>
-    <row r="219">
+        <v>57300</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>220</v>
       </c>
       <c r="B219">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="C219">
-        <v>57400.0</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>57400</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>221</v>
       </c>
       <c r="B220">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="C220">
-        <v>57630.0</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>57630</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>222</v>
       </c>
       <c r="B221">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C221">
-        <v>58235.0</v>
-      </c>
-    </row>
-    <row r="222">
+        <v>58235</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>223</v>
       </c>
       <c r="B222">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C222">
-        <v>59005.0</v>
-      </c>
-    </row>
-    <row r="223">
+        <v>59005</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>224</v>
       </c>
       <c r="B223">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C223">
-        <v>59830.0</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>59830</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>225</v>
       </c>
       <c r="B224">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C224">
-        <v>60160.0</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>60160</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>226</v>
       </c>
       <c r="B225">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C225">
-        <v>60600.0</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>60600</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>227</v>
       </c>
       <c r="B226">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C226">
-        <v>61315.0</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>61315</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>228</v>
       </c>
       <c r="B227">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="C227">
-        <v>62000.0</v>
-      </c>
-    </row>
-    <row r="228">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>229</v>
       </c>
       <c r="B228">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="C228">
-        <v>62660.0</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>230</v>
       </c>
       <c r="B229">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="C229">
-        <v>62880.0</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>62880</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>231</v>
       </c>
       <c r="B230">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C230">
-        <v>63045.0</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>63045</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>232</v>
       </c>
       <c r="B231">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C231">
-        <v>63265.0</v>
-      </c>
-    </row>
-    <row r="232">
+        <v>63265</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>233</v>
       </c>
       <c r="B232">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C232">
-        <v>64090.0</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>64090</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>234</v>
       </c>
       <c r="B233">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="C233">
-        <v>64200.0</v>
-      </c>
-    </row>
-    <row r="234">
+        <v>64200</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>235</v>
       </c>
       <c r="B234">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="C234">
-        <v>64255.0</v>
-      </c>
-    </row>
-    <row r="235">
+        <v>64255</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>236</v>
       </c>
       <c r="B235">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="C235">
-        <v>64970.0</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>64970</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>237</v>
       </c>
       <c r="B236">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="C236">
-        <v>65190.0</v>
-      </c>
-    </row>
-    <row r="237">
+        <v>65190</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>238</v>
       </c>
       <c r="B237">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C237">
-        <v>65740.0</v>
-      </c>
-    </row>
-    <row r="238">
+        <v>65740</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>239</v>
       </c>
       <c r="B238">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="C238">
-        <v>66895.0</v>
-      </c>
-    </row>
-    <row r="239">
+        <v>66895</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>240</v>
       </c>
       <c r="B239">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="C239">
-        <v>67005.0</v>
-      </c>
-    </row>
-    <row r="240">
+        <v>67005</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>241</v>
       </c>
       <c r="B240">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C240">
-        <v>67280.0</v>
-      </c>
-    </row>
-    <row r="241">
+        <v>67280</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>242</v>
       </c>
       <c r="B241">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C241">
-        <v>67830.0</v>
-      </c>
-    </row>
-    <row r="242">
+        <v>67830</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>243</v>
       </c>
       <c r="B242">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C242">
-        <v>68105.0</v>
-      </c>
-    </row>
-    <row r="243">
+        <v>68105</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>244</v>
       </c>
       <c r="B243">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="C243">
-        <v>68655.0</v>
-      </c>
-    </row>
-    <row r="244">
+        <v>68655</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>245</v>
       </c>
       <c r="B244">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="C244">
-        <v>68930.0</v>
-      </c>
-    </row>
-    <row r="245">
+        <v>68930</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>246</v>
       </c>
       <c r="B245">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="C245">
-        <v>69040.0</v>
-      </c>
-    </row>
-    <row r="246">
+        <v>69040</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>247</v>
       </c>
       <c r="B246">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C246">
-        <v>69150.0</v>
-      </c>
-    </row>
-    <row r="247">
+        <v>69150</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>248</v>
       </c>
       <c r="B247">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C247">
-        <v>69645.0</v>
-      </c>
-    </row>
-    <row r="248">
+        <v>69645</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>249</v>
       </c>
       <c r="B248">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="C248">
-        <v>69700.0</v>
-      </c>
-    </row>
-    <row r="249">
+        <v>69700</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>250</v>
       </c>
       <c r="B249">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="C249">
-        <v>70195.0</v>
-      </c>
-    </row>
-    <row r="250">
+        <v>70195</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>251</v>
       </c>
       <c r="B250">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C250">
-        <v>70250.0</v>
-      </c>
-    </row>
-    <row r="251">
+        <v>70250</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>252</v>
       </c>
       <c r="B251">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C251">
-        <v>70360.0</v>
-      </c>
-    </row>
-    <row r="252">
+        <v>70360</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>253</v>
       </c>
       <c r="B252">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="C252">
-        <v>70525.0</v>
-      </c>
-    </row>
-    <row r="253">
+        <v>70525</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>254</v>
       </c>
       <c r="B253">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="C253">
-        <v>70580.0</v>
-      </c>
-    </row>
-    <row r="254">
+        <v>70580</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>255</v>
       </c>
       <c r="B254">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C254">
-        <v>70635.0</v>
-      </c>
-    </row>
-    <row r="255">
+        <v>70635</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>256</v>
       </c>
       <c r="B255">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="C255">
-        <v>71755.0</v>
-      </c>
-    </row>
-    <row r="256">
+        <v>71755</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>257</v>
       </c>
       <c r="B256">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="C256">
-        <v>72395.0</v>
-      </c>
-    </row>
-    <row r="257">
+        <v>72395</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>258</v>
       </c>
       <c r="B257">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C257">
-        <v>73330.0</v>
-      </c>
-    </row>
-    <row r="258">
+        <v>73330</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>259</v>
       </c>
       <c r="B258">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="C258">
-        <v>73715.0</v>
-      </c>
-    </row>
-    <row r="259">
+        <v>73715</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>260</v>
       </c>
       <c r="B259">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="C259">
-        <v>73825.0</v>
-      </c>
-    </row>
-    <row r="260">
+        <v>73825</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>261</v>
       </c>
       <c r="B260">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C260">
-        <v>73935.0</v>
-      </c>
-    </row>
-    <row r="261">
+        <v>73935</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>262</v>
       </c>
       <c r="B261">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="C261">
-        <v>74485.0</v>
-      </c>
-    </row>
-    <row r="262">
+        <v>74485</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>263</v>
       </c>
       <c r="B262">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C262">
-        <v>74815.0</v>
-      </c>
-    </row>
-    <row r="263">
+        <v>74815</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>264</v>
       </c>
       <c r="B263">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C263">
-        <v>75640.0</v>
-      </c>
-    </row>
-    <row r="264">
+        <v>75640</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>265</v>
       </c>
       <c r="B264">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C264">
-        <v>75640.0</v>
-      </c>
-    </row>
-    <row r="265">
+        <v>75640</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>266</v>
       </c>
       <c r="B265">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="C265">
-        <v>75970.0</v>
-      </c>
-    </row>
-    <row r="266">
+        <v>75970</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>267</v>
       </c>
       <c r="B266">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="C266">
-        <v>76795.0</v>
-      </c>
-    </row>
-    <row r="267">
+        <v>76795</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>268</v>
       </c>
       <c r="B267">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C267">
-        <v>77290.0</v>
-      </c>
-    </row>
-    <row r="268">
+        <v>77290</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>269</v>
       </c>
       <c r="B268">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C268">
-        <v>77290.0</v>
-      </c>
-    </row>
-    <row r="269">
+        <v>77290</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>270</v>
       </c>
       <c r="B269">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="C269">
-        <v>77510.0</v>
-      </c>
-    </row>
-    <row r="270">
+        <v>77510</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>271</v>
       </c>
       <c r="B270">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="C270">
-        <v>78610.0</v>
-      </c>
-    </row>
-    <row r="271">
+        <v>78610</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>272</v>
       </c>
       <c r="B271">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C271">
-        <v>79270.0</v>
-      </c>
-    </row>
-    <row r="272">
+        <v>79270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>273</v>
       </c>
       <c r="B272">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C272">
-        <v>80040.0</v>
-      </c>
-    </row>
-    <row r="273">
+        <v>80040</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>274</v>
       </c>
       <c r="B273">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="C273">
-        <v>80865.0</v>
-      </c>
-    </row>
-    <row r="274">
+        <v>80865</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>275</v>
       </c>
       <c r="B274">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C274">
-        <v>81030.0</v>
-      </c>
-    </row>
-    <row r="275">
+        <v>81030</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>276</v>
       </c>
       <c r="B275">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="C275">
-        <v>81690.0</v>
-      </c>
-    </row>
-    <row r="276">
+        <v>81690</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>277</v>
       </c>
       <c r="B276">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="C276">
-        <v>82130.0</v>
-      </c>
-    </row>
-    <row r="277">
+        <v>82130</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>278</v>
       </c>
       <c r="B277">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="C277">
-        <v>82350.0</v>
-      </c>
-    </row>
-    <row r="278">
+        <v>82350</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>279</v>
       </c>
       <c r="B278">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C278">
-        <v>82460.0</v>
-      </c>
-    </row>
-    <row r="279">
+        <v>82460</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>280</v>
       </c>
       <c r="B279">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C279">
-        <v>82735.0</v>
-      </c>
-    </row>
-    <row r="280">
+        <v>82735</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>281</v>
       </c>
       <c r="B280">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="C280">
-        <v>83230.0</v>
-      </c>
-    </row>
-    <row r="281">
+        <v>83230</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>282</v>
       </c>
       <c r="B281">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C281">
-        <v>83450.0</v>
-      </c>
-    </row>
-    <row r="282">
+        <v>83450</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>283</v>
       </c>
       <c r="B282">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C282">
-        <v>83835.0</v>
-      </c>
-    </row>
-    <row r="283">
+        <v>83835</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>284</v>
       </c>
       <c r="B283">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C283">
-        <v>83835.0</v>
-      </c>
-    </row>
-    <row r="284">
+        <v>83835</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>285</v>
       </c>
       <c r="B284">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C284">
-        <v>84440.0</v>
-      </c>
-    </row>
-    <row r="285">
+        <v>84440</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>286</v>
       </c>
       <c r="B285">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="C285">
-        <v>84770.0</v>
-      </c>
-    </row>
-    <row r="286">
+        <v>84770</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>287</v>
       </c>
       <c r="B286">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="C286">
-        <v>85045.0</v>
-      </c>
-    </row>
-    <row r="287">
+        <v>85045</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>288</v>
       </c>
       <c r="B287">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="C287">
-        <v>85155.0</v>
-      </c>
-    </row>
-    <row r="288">
+        <v>85155</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>289</v>
       </c>
       <c r="B288">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="C288">
-        <v>85485.0</v>
-      </c>
-    </row>
-    <row r="289">
+        <v>85485</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>290</v>
       </c>
       <c r="B289">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="C289">
-        <v>85485.0</v>
-      </c>
-    </row>
-    <row r="290">
+        <v>85485</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>291</v>
       </c>
       <c r="B290">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="C290">
-        <v>85705.0</v>
-      </c>
-    </row>
-    <row r="291">
+        <v>85705</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>292</v>
       </c>
       <c r="B291">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="C291">
-        <v>86090.0</v>
-      </c>
-    </row>
-    <row r="292">
+        <v>86090</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>293</v>
       </c>
       <c r="B292">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="C292">
-        <v>86310.0</v>
-      </c>
-    </row>
-    <row r="293">
+        <v>86310</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>294</v>
       </c>
       <c r="B293">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="C293">
-        <v>86475.0</v>
-      </c>
-    </row>
-    <row r="294">
+        <v>86475</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>295</v>
       </c>
       <c r="B294">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="C294">
-        <v>86750.0</v>
-      </c>
-    </row>
-    <row r="295">
+        <v>86750</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
+        <v>350</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>347</v>
+      </c>
+      <c r="B296">
+        <v>3</v>
+      </c>
+      <c r="C296">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>314</v>
+      </c>
+      <c r="B297">
+        <v>5</v>
+      </c>
+      <c r="C297">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>328</v>
+      </c>
+      <c r="B298">
+        <v>7</v>
+      </c>
+      <c r="C298">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>346</v>
+      </c>
+      <c r="B299">
+        <v>9</v>
+      </c>
+      <c r="C299">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300">
+        <v>11</v>
+      </c>
+      <c r="C300">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>333</v>
+      </c>
+      <c r="B301">
+        <v>13</v>
+      </c>
+      <c r="C301">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>335</v>
+      </c>
+      <c r="B302">
+        <v>15</v>
+      </c>
+      <c r="C302">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>337</v>
+      </c>
+      <c r="B303">
+        <v>17</v>
+      </c>
+      <c r="C303">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>338</v>
+      </c>
+      <c r="B304">
+        <v>19</v>
+      </c>
+      <c r="C304">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>339</v>
+      </c>
+      <c r="B305">
+        <v>21</v>
+      </c>
+      <c r="C305">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>341</v>
+      </c>
+      <c r="B306">
+        <v>23</v>
+      </c>
+      <c r="C306">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>343</v>
+      </c>
+      <c r="B307">
+        <v>25</v>
+      </c>
+      <c r="C307">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>330</v>
+      </c>
+      <c r="B308">
+        <v>27</v>
+      </c>
+      <c r="C308">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>345</v>
+      </c>
+      <c r="B309">
+        <v>29</v>
+      </c>
+      <c r="C309">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>348</v>
+      </c>
+      <c r="B310">
+        <v>33</v>
+      </c>
+      <c r="C310">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>344</v>
+      </c>
+      <c r="B311">
+        <v>35</v>
+      </c>
+      <c r="C311">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>342</v>
+      </c>
+      <c r="B312">
+        <v>37</v>
+      </c>
+      <c r="C312">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>305</v>
+      </c>
+      <c r="B313">
+        <v>39</v>
+      </c>
+      <c r="C313">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>306</v>
+      </c>
+      <c r="B314">
+        <v>41</v>
+      </c>
+      <c r="C314">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>308</v>
+      </c>
+      <c r="B315">
+        <v>43</v>
+      </c>
+      <c r="C315">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>309</v>
+      </c>
+      <c r="B316">
+        <v>45</v>
+      </c>
+      <c r="C316">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>311</v>
+      </c>
+      <c r="B317">
+        <v>47</v>
+      </c>
+      <c r="C317">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>312</v>
+      </c>
+      <c r="B318">
+        <v>49</v>
+      </c>
+      <c r="C318">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>329</v>
+      </c>
+      <c r="B319">
+        <v>51</v>
+      </c>
+      <c r="C319">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>316</v>
+      </c>
+      <c r="B320">
+        <v>53</v>
+      </c>
+      <c r="C320">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>318</v>
+      </c>
+      <c r="B321">
+        <v>55</v>
+      </c>
+      <c r="C321">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>319</v>
+      </c>
+      <c r="B322">
+        <v>57</v>
+      </c>
+      <c r="C322">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>320</v>
+      </c>
+      <c r="B323">
+        <v>59</v>
+      </c>
+      <c r="C323">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>321</v>
+      </c>
+      <c r="B324">
+        <v>61</v>
+      </c>
+      <c r="C324">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>63</v>
+      </c>
+      <c r="C325">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>65</v>
+      </c>
+      <c r="C326">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>67</v>
+      </c>
+      <c r="C327">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>69</v>
+      </c>
+      <c r="C328">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>325</v>
+      </c>
+      <c r="B329">
+        <v>71</v>
+      </c>
+      <c r="C329">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>322</v>
+      </c>
+      <c r="B330">
+        <v>73</v>
+      </c>
+      <c r="C330">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>303</v>
+      </c>
+      <c r="B331">
+        <v>75</v>
+      </c>
+      <c r="C331">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>313</v>
+      </c>
+      <c r="B332">
+        <v>77</v>
+      </c>
+      <c r="C332">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>310</v>
+      </c>
+      <c r="B333">
+        <v>79</v>
+      </c>
+      <c r="C333">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>307</v>
+      </c>
+      <c r="B334">
+        <v>81</v>
+      </c>
+      <c r="C334">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>304</v>
+      </c>
+      <c r="B335">
+        <v>83</v>
+      </c>
+      <c r="C335">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>317</v>
+      </c>
+      <c r="B336">
+        <v>85</v>
+      </c>
+      <c r="C336">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>351</v>
+      </c>
+      <c r="B337">
+        <v>87</v>
+      </c>
+      <c r="C337">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>349</v>
+      </c>
+      <c r="B338">
+        <v>89</v>
+      </c>
+      <c r="C338">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>357</v>
+      </c>
+      <c r="B339">
+        <v>91</v>
+      </c>
+      <c r="C339">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>93</v>
+      </c>
+      <c r="C340">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>336</v>
+      </c>
+      <c r="B341">
+        <v>95</v>
+      </c>
+      <c r="C341">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>334</v>
+      </c>
+      <c r="B342">
+        <v>97</v>
+      </c>
+      <c r="C342">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>356</v>
+      </c>
+      <c r="B343">
+        <v>99</v>
+      </c>
+      <c r="C343">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>315</v>
+      </c>
+      <c r="B344">
+        <v>101</v>
+      </c>
+      <c r="C344">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>352</v>
+      </c>
+      <c r="B345">
+        <v>103</v>
+      </c>
+      <c r="C345">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>353</v>
+      </c>
+      <c r="B346">
+        <v>105</v>
+      </c>
+      <c r="C346">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>354</v>
+      </c>
+      <c r="B347">
+        <v>107</v>
+      </c>
+      <c r="C347">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>355</v>
+      </c>
+      <c r="B348">
+        <v>109</v>
+      </c>
+      <c r="C348">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>299</v>
+      </c>
+      <c r="B349">
+        <v>111</v>
+      </c>
+      <c r="C349">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>300</v>
+      </c>
+      <c r="B350">
+        <v>113</v>
+      </c>
+      <c r="C350">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
         <v>296</v>
       </c>
-      <c r="B295">
-        <v>115.0</v>
-      </c>
-      <c r="C295">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s">
+      <c r="B351">
+        <v>115</v>
+      </c>
+      <c r="C351">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
         <v>297</v>
       </c>
-      <c r="B296">
-        <v>117.0</v>
-      </c>
-      <c r="C296">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s">
+      <c r="B352">
+        <v>117</v>
+      </c>
+      <c r="C352">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>301</v>
+      </c>
+      <c r="B353">
+        <v>119</v>
+      </c>
+      <c r="C353">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
         <v>298</v>
       </c>
-      <c r="B297">
-        <v>121.0</v>
-      </c>
-      <c r="C297">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s">
-        <v>299</v>
-      </c>
-      <c r="B298">
-        <v>111.0</v>
-      </c>
-      <c r="C298">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s">
-        <v>300</v>
-      </c>
-      <c r="B299">
-        <v>113.0</v>
-      </c>
-      <c r="C299">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s">
-        <v>301</v>
-      </c>
-      <c r="B300">
-        <v>119.0</v>
-      </c>
-      <c r="C300">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s">
-        <v>302</v>
-      </c>
-      <c r="B301">
-        <v>11.0</v>
-      </c>
-      <c r="C301">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s">
-        <v>303</v>
-      </c>
-      <c r="B302">
-        <v>75.0</v>
-      </c>
-      <c r="C302">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s">
-        <v>304</v>
-      </c>
-      <c r="B303">
-        <v>83.0</v>
-      </c>
-      <c r="C303">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s">
-        <v>305</v>
-      </c>
-      <c r="B304">
-        <v>39.0</v>
-      </c>
-      <c r="C304">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s">
-        <v>306</v>
-      </c>
-      <c r="B305">
-        <v>41.0</v>
-      </c>
-      <c r="C305">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s">
-        <v>307</v>
-      </c>
-      <c r="B306">
-        <v>81.0</v>
-      </c>
-      <c r="C306">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s">
-        <v>308</v>
-      </c>
-      <c r="B307">
-        <v>43.0</v>
-      </c>
-      <c r="C307">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s">
-        <v>309</v>
-      </c>
-      <c r="B308">
-        <v>45.0</v>
-      </c>
-      <c r="C308">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="s">
-        <v>310</v>
-      </c>
-      <c r="B309">
-        <v>79.0</v>
-      </c>
-      <c r="C309">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s">
-        <v>311</v>
-      </c>
-      <c r="B310">
-        <v>47.0</v>
-      </c>
-      <c r="C310">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s">
-        <v>312</v>
-      </c>
-      <c r="B311">
-        <v>49.0</v>
-      </c>
-      <c r="C311">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s">
-        <v>313</v>
-      </c>
-      <c r="B312">
-        <v>77.0</v>
-      </c>
-      <c r="C312">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="s">
-        <v>314</v>
-      </c>
-      <c r="B313">
-        <v>5.0</v>
-      </c>
-      <c r="C313">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="s">
-        <v>315</v>
-      </c>
-      <c r="B314">
-        <v>101.0</v>
-      </c>
-      <c r="C314">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="s">
-        <v>316</v>
-      </c>
-      <c r="B315">
-        <v>53.0</v>
-      </c>
-      <c r="C315">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s">
-        <v>317</v>
-      </c>
-      <c r="B316">
-        <v>85.0</v>
-      </c>
-      <c r="C316">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s">
-        <v>318</v>
-      </c>
-      <c r="B317">
-        <v>55.0</v>
-      </c>
-      <c r="C317">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s">
-        <v>319</v>
-      </c>
-      <c r="B318">
-        <v>57.0</v>
-      </c>
-      <c r="C318">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s">
-        <v>320</v>
-      </c>
-      <c r="B319">
-        <v>59.0</v>
-      </c>
-      <c r="C319">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="s">
-        <v>321</v>
-      </c>
-      <c r="B320">
-        <v>61.0</v>
-      </c>
-      <c r="C320">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s">
-        <v>322</v>
-      </c>
-      <c r="B321">
-        <v>73.0</v>
-      </c>
-      <c r="C321">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>323</v>
-      </c>
-      <c r="B322">
-        <v>63.0</v>
-      </c>
-      <c r="C322">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>324</v>
-      </c>
-      <c r="B323">
-        <v>65.0</v>
-      </c>
-      <c r="C323">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s">
-        <v>325</v>
-      </c>
-      <c r="B324">
-        <v>71.0</v>
-      </c>
-      <c r="C324">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s">
-        <v>326</v>
-      </c>
-      <c r="B325">
-        <v>67.0</v>
-      </c>
-      <c r="C325">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s">
-        <v>327</v>
-      </c>
-      <c r="B326">
-        <v>69.0</v>
-      </c>
-      <c r="C326">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s">
-        <v>328</v>
-      </c>
-      <c r="B327">
-        <v>7.0</v>
-      </c>
-      <c r="C327">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="s">
-        <v>329</v>
-      </c>
-      <c r="B328">
-        <v>51.0</v>
-      </c>
-      <c r="C328">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="s">
-        <v>330</v>
-      </c>
-      <c r="B329">
-        <v>27.0</v>
-      </c>
-      <c r="C329">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="s">
+      <c r="B354">
+        <v>121</v>
+      </c>
+      <c r="C354">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
         <v>331</v>
       </c>
-      <c r="B330">
-        <v>123.0</v>
-      </c>
-      <c r="C330">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="s">
+      <c r="B355">
+        <v>123</v>
+      </c>
+      <c r="C355">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
         <v>332</v>
       </c>
-      <c r="B331">
-        <v>125.0</v>
-      </c>
-      <c r="C331">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="s">
-        <v>333</v>
-      </c>
-      <c r="B332">
-        <v>13.0</v>
-      </c>
-      <c r="C332">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="s">
-        <v>334</v>
-      </c>
-      <c r="B333">
-        <v>97.0</v>
-      </c>
-      <c r="C333">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="s">
-        <v>335</v>
-      </c>
-      <c r="B334">
-        <v>15.0</v>
-      </c>
-      <c r="C334">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="s">
-        <v>336</v>
-      </c>
-      <c r="B335">
-        <v>95.0</v>
-      </c>
-      <c r="C335">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="s">
-        <v>337</v>
-      </c>
-      <c r="B336">
-        <v>17.0</v>
-      </c>
-      <c r="C336">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="s">
-        <v>338</v>
-      </c>
-      <c r="B337">
-        <v>19.0</v>
-      </c>
-      <c r="C337">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="s">
-        <v>339</v>
-      </c>
-      <c r="B338">
-        <v>21.0</v>
-      </c>
-      <c r="C338">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="s">
-        <v>340</v>
-      </c>
-      <c r="B339">
-        <v>93.0</v>
-      </c>
-      <c r="C339">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="s">
-        <v>341</v>
-      </c>
-      <c r="B340">
-        <v>23.0</v>
-      </c>
-      <c r="C340">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="s">
-        <v>342</v>
-      </c>
-      <c r="B341">
-        <v>37.0</v>
-      </c>
-      <c r="C341">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="s">
-        <v>343</v>
-      </c>
-      <c r="B342">
-        <v>25.0</v>
-      </c>
-      <c r="C342">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="s">
-        <v>344</v>
-      </c>
-      <c r="B343">
-        <v>35.0</v>
-      </c>
-      <c r="C343">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="s">
-        <v>345</v>
-      </c>
-      <c r="B344">
-        <v>29.0</v>
-      </c>
-      <c r="C344">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="s">
-        <v>346</v>
-      </c>
-      <c r="B345">
-        <v>9.0</v>
-      </c>
-      <c r="C345">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="s">
-        <v>347</v>
-      </c>
-      <c r="B346">
-        <v>3.0</v>
-      </c>
-      <c r="C346">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="s">
-        <v>348</v>
-      </c>
-      <c r="B347">
-        <v>33.0</v>
-      </c>
-      <c r="C347">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="s">
-        <v>349</v>
-      </c>
-      <c r="B348">
-        <v>89.0</v>
-      </c>
-      <c r="C348">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="s">
-        <v>350</v>
-      </c>
-      <c r="B349">
-        <v>1.0</v>
-      </c>
-      <c r="C349">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="s">
-        <v>351</v>
-      </c>
-      <c r="B350">
-        <v>87.0</v>
-      </c>
-      <c r="C350">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="s">
-        <v>352</v>
-      </c>
-      <c r="B351">
-        <v>103.0</v>
-      </c>
-      <c r="C351">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="s">
-        <v>353</v>
-      </c>
-      <c r="B352">
-        <v>105.0</v>
-      </c>
-      <c r="C352">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="s">
-        <v>354</v>
-      </c>
-      <c r="B353">
-        <v>107.0</v>
-      </c>
-      <c r="C353">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="s">
-        <v>355</v>
-      </c>
-      <c r="B354">
-        <v>109.0</v>
-      </c>
-      <c r="C354">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="s">
-        <v>356</v>
-      </c>
-      <c r="B355">
-        <v>99.0</v>
-      </c>
-      <c r="C355">
-        <v>99990.0</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="s">
-        <v>357</v>
-      </c>
       <c r="B356">
-        <v>91.0</v>
+        <v>125</v>
       </c>
       <c r="C356">
-        <v>99990.0</v>
+        <v>99990</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <sortState ref="A295:C356">
+    <sortCondition ref="B295:B356"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>